--- a/excel/data_excel/UniqueItems.xlsx
+++ b/excel/data_excel/UniqueItems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A498BB32-C462-47A4-9981-92FA98682BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F78B649-D820-4BA4-BC56-247E384FBB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$BT$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$BT$405</definedName>
     <definedName name="UniqueItems" localSheetId="0">Sheet1!$C$1:$BT$405</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5776" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5776" uniqueCount="1902">
   <si>
     <t>index</t>
   </si>
@@ -5695,6 +5695,177 @@
   </si>
   <si>
     <t>碎钢</t>
+  </si>
+  <si>
+    <t>切開骷髏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irices Shard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩胛骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rimeraven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡鳥之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piercerib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘿格之弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pullspite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴風之擊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doomspittle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毀滅投石者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢格因的軟帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒液牢房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷尼摩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝮蛇之护身符（任务物品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王之杖（任务物品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫拉迪克法杖（任务物品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱熔炉铁锤（任务物品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克林姆连枷（任务物品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级克林姆连枷（任务物品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expansion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛頭怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀锋边缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gore Ripper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧玉爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸魂者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼火投射者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂看守者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影杀者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warriv's Warder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斯特龙之铁的保护区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地覆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹刻面</t>
+  </si>
+  <si>
+    <t>地狱火炬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴特克的猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constricting Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔爪牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6084,7 +6255,8 @@
   <dimension ref="A1:BT405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7088,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>1859</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -9201,7 +9373,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>1860</v>
       </c>
       <c r="C27" t="s">
         <v>222</v>
@@ -11102,10 +11274,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>312</v>
+        <v>1862</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>1861</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -13102,10 +13274,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>1864</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>1863</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -13194,10 +13366,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>382</v>
+        <v>1866</v>
       </c>
       <c r="C66" t="s">
-        <v>382</v>
+        <v>1865</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -13295,10 +13467,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>1868</v>
       </c>
       <c r="C67" t="s">
-        <v>386</v>
+        <v>1867</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -14044,10 +14216,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>416</v>
+        <v>1870</v>
       </c>
       <c r="C74" t="s">
-        <v>416</v>
+        <v>1869</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -14136,7 +14308,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>420</v>
+        <v>1871</v>
       </c>
       <c r="C75" t="s">
         <v>420</v>
@@ -15603,7 +15775,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>481</v>
+        <v>1872</v>
       </c>
       <c r="C90" t="s">
         <v>481</v>
@@ -18256,7 +18428,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>573</v>
+        <v>1873</v>
       </c>
       <c r="C116" t="s">
         <v>573</v>
@@ -19316,7 +19488,7 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>598</v>
+        <v>1874</v>
       </c>
       <c r="C127" t="s">
         <v>598</v>
@@ -19411,7 +19583,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>600</v>
+        <v>1875</v>
       </c>
       <c r="C128" t="s">
         <v>600</v>
@@ -19503,7 +19675,7 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>603</v>
+        <v>1876</v>
       </c>
       <c r="C129" t="s">
         <v>603</v>
@@ -19604,7 +19776,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>605</v>
+        <v>1877</v>
       </c>
       <c r="C130" t="s">
         <v>605</v>
@@ -19702,7 +19874,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>608</v>
+        <v>1878</v>
       </c>
       <c r="C131" t="s">
         <v>608</v>
@@ -19800,7 +19972,7 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>610</v>
+        <v>1879</v>
       </c>
       <c r="C132" t="s">
         <v>610</v>
@@ -19904,7 +20076,7 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>612</v>
+        <v>1880</v>
       </c>
       <c r="C133" t="s">
         <v>612</v>
@@ -20971,7 +21143,7 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>651</v>
+        <v>1881</v>
       </c>
       <c r="C143" t="s">
         <v>651</v>
@@ -34649,7 +34821,7 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>1079</v>
+        <v>1899</v>
       </c>
       <c r="C268" t="s">
         <v>1079</v>
@@ -36987,7 +37159,7 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>1126</v>
+        <v>1898</v>
       </c>
       <c r="C291" t="s">
         <v>1126</v>
@@ -37846,7 +38018,7 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>1155</v>
+        <v>1882</v>
       </c>
       <c r="C299" t="s">
         <v>1155</v>
@@ -37938,7 +38110,7 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
-        <v>1158</v>
+        <v>1883</v>
       </c>
       <c r="C300" t="s">
         <v>1158</v>
@@ -37970,7 +38142,7 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>1159</v>
+        <v>1900</v>
       </c>
       <c r="C301" t="s">
         <v>1159</v>
@@ -38083,7 +38255,7 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>1163</v>
+        <v>1901</v>
       </c>
       <c r="C302" t="s">
         <v>1163</v>
@@ -38315,7 +38487,7 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>1170</v>
+        <v>1884</v>
       </c>
       <c r="C304" t="s">
         <v>1170</v>
@@ -39119,7 +39291,7 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>1198</v>
+        <v>1885</v>
       </c>
       <c r="C313" t="s">
         <v>1198</v>
@@ -39580,7 +39752,7 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>1211</v>
+        <v>1886</v>
       </c>
       <c r="C317" t="s">
         <v>1211</v>
@@ -40176,7 +40348,7 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>1235</v>
+        <v>1887</v>
       </c>
       <c r="C324" t="s">
         <v>1235</v>
@@ -41062,7 +41234,7 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>1267</v>
+        <v>1888</v>
       </c>
       <c r="C332" t="s">
         <v>1267</v>
@@ -41808,7 +41980,7 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>1293</v>
+        <v>1889</v>
       </c>
       <c r="C339" t="s">
         <v>1293</v>
@@ -43789,7 +43961,7 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>1367</v>
+        <v>1890</v>
       </c>
       <c r="C359" t="s">
         <v>1367</v>
@@ -44648,7 +44820,7 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>1399</v>
+        <v>1891</v>
       </c>
       <c r="C367" t="s">
         <v>1399</v>
@@ -46248,7 +46420,7 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>1449</v>
+        <v>1892</v>
       </c>
       <c r="C384" t="s">
         <v>1449</v>
@@ -46343,7 +46515,7 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>1453</v>
+        <v>1893</v>
       </c>
       <c r="C385" t="s">
         <v>1453</v>
@@ -46667,7 +46839,7 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>1465</v>
+        <v>1894</v>
       </c>
       <c r="C388" t="s">
         <v>1465</v>
@@ -46884,7 +47056,7 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>1472</v>
+        <v>1895</v>
       </c>
       <c r="C390" t="s">
         <v>1472</v>
@@ -47597,7 +47769,7 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>1495</v>
+        <v>1896</v>
       </c>
       <c r="C397" t="s">
         <v>1495</v>
@@ -47677,7 +47849,7 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>1495</v>
+        <v>1896</v>
       </c>
       <c r="C398" t="s">
         <v>1495</v>
@@ -47760,7 +47932,7 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>1495</v>
+        <v>1896</v>
       </c>
       <c r="C399" t="s">
         <v>1495</v>
@@ -47840,7 +48012,7 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>1495</v>
+        <v>1896</v>
       </c>
       <c r="C400" t="s">
         <v>1495</v>
@@ -47923,7 +48095,7 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>1495</v>
+        <v>1896</v>
       </c>
       <c r="C401" t="s">
         <v>1495</v>
@@ -48003,7 +48175,7 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>1495</v>
+        <v>1896</v>
       </c>
       <c r="C402" t="s">
         <v>1495</v>
@@ -48086,7 +48258,7 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>1495</v>
+        <v>1896</v>
       </c>
       <c r="C403" t="s">
         <v>1495</v>
@@ -48166,7 +48338,7 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1495</v>
+        <v>1896</v>
       </c>
       <c r="C404" t="s">
         <v>1495</v>
@@ -48249,7 +48421,7 @@
         <v>402</v>
       </c>
       <c r="B405" t="s">
-        <v>1503</v>
+        <v>1897</v>
       </c>
       <c r="C405" t="s">
         <v>1503</v>
@@ -48364,7 +48536,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BT3" xr:uid="{393F77FC-69B3-45EF-84C2-FF78D9AB611B}"/>
+  <autoFilter ref="A3:BT405" xr:uid="{393F77FC-69B3-45EF-84C2-FF78D9AB611B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
